--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H2">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>1.375985344106317</v>
+        <v>1.950139002427</v>
       </c>
       <c r="R2">
-        <v>1.375985344106317</v>
+        <v>17.551251021843</v>
       </c>
       <c r="S2">
-        <v>0.003402404380931649</v>
+        <v>0.003312132134620329</v>
       </c>
       <c r="T2">
-        <v>0.003402404380931649</v>
+        <v>0.003312132134620329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H3">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>56.28800389003867</v>
+        <v>56.79094760667999</v>
       </c>
       <c r="R3">
-        <v>56.28800389003867</v>
+        <v>511.1185284601199</v>
       </c>
       <c r="S3">
-        <v>0.1391835689599958</v>
+        <v>0.0964542128994548</v>
       </c>
       <c r="T3">
-        <v>0.1391835689599958</v>
+        <v>0.0964542128994548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H4">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>12.46580935008411</v>
+        <v>0.117377341515</v>
       </c>
       <c r="R4">
-        <v>12.46580935008411</v>
+        <v>1.056396073635</v>
       </c>
       <c r="S4">
-        <v>0.03082425588779218</v>
+        <v>0.0001993546430404718</v>
       </c>
       <c r="T4">
-        <v>0.03082425588779218</v>
+        <v>0.0001993546430404717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.164862265629508</v>
+        <v>0.637903</v>
       </c>
       <c r="H5">
-        <v>0.164862265629508</v>
+        <v>1.913709</v>
       </c>
       <c r="I5">
-        <v>0.0450839912395708</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J5">
-        <v>0.0450839912395708</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>0.3577350164138587</v>
+        <v>13.50418154287533</v>
       </c>
       <c r="R5">
-        <v>0.3577350164138587</v>
+        <v>121.537633885878</v>
       </c>
       <c r="S5">
-        <v>0.0008845727843487281</v>
+        <v>0.02293561309436886</v>
       </c>
       <c r="T5">
-        <v>0.0008845727843487281</v>
+        <v>0.02293561309436885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H6">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>14.63401487650618</v>
+        <v>0.5205675776290001</v>
       </c>
       <c r="R6">
-        <v>14.63401487650618</v>
+        <v>4.685108198661</v>
       </c>
       <c r="S6">
-        <v>0.03618558623441006</v>
+        <v>0.000884136258984962</v>
       </c>
       <c r="T6">
-        <v>0.03618558623441006</v>
+        <v>0.000884136258984962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H7">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>3.24091861266206</v>
+        <v>15.15970194436</v>
       </c>
       <c r="R7">
-        <v>3.24091861266206</v>
+        <v>136.43731749924</v>
       </c>
       <c r="S7">
-        <v>0.008013832220812015</v>
+        <v>0.02574736257194599</v>
       </c>
       <c r="T7">
-        <v>0.008013832220812015</v>
+        <v>0.02574736257194599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.85779519234462</v>
+        <v>0.170281</v>
       </c>
       <c r="H8">
-        <v>2.85779519234462</v>
+        <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.7815057795317095</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J8">
-        <v>0.7815057795317095</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>6.201136482852423</v>
+        <v>0.031332555405</v>
       </c>
       <c r="R8">
-        <v>6.201136482852423</v>
+        <v>0.281992998645</v>
       </c>
       <c r="S8">
-        <v>0.01533357460992108</v>
+        <v>5.321547001906963E-05</v>
       </c>
       <c r="T8">
-        <v>0.01533357460992108</v>
+        <v>5.321547001906962E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.85779519234462</v>
+        <v>0.170281</v>
       </c>
       <c r="H9">
-        <v>2.85779519234462</v>
+        <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.7815057795317095</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J9">
-        <v>0.7815057795317095</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>253.6724653096945</v>
+        <v>3.604788717567334</v>
       </c>
       <c r="R9">
-        <v>253.6724653096945</v>
+        <v>32.443098458106</v>
       </c>
       <c r="S9">
-        <v>0.6272569042891986</v>
+        <v>0.006122402831343047</v>
       </c>
       <c r="T9">
-        <v>0.6272569042891986</v>
+        <v>0.006122402831343046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H10">
+        <v>10.221374</v>
+      </c>
+      <c r="I10">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J10">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.057109</v>
+      </c>
+      <c r="N10">
+        <v>9.171327</v>
+      </c>
+      <c r="O10">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P10">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q10">
+        <v>10.41595148258867</v>
+      </c>
+      <c r="R10">
+        <v>93.74356334329801</v>
+      </c>
+      <c r="S10">
+        <v>0.01769053773869106</v>
+      </c>
+      <c r="T10">
+        <v>0.01769053773869106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H11">
+        <v>10.221374</v>
+      </c>
+      <c r="I11">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J11">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N11">
+        <v>267.08268</v>
+      </c>
+      <c r="O11">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P11">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q11">
+        <v>303.3279956891466</v>
+      </c>
+      <c r="R11">
+        <v>2729.95196120232</v>
+      </c>
+      <c r="S11">
+        <v>0.515174764774034</v>
+      </c>
+      <c r="T11">
+        <v>0.5151747647740341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H12">
+        <v>10.221374</v>
+      </c>
+      <c r="I12">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J12">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.184005</v>
+      </c>
+      <c r="N12">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P12">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q12">
+        <v>0.6269279742899999</v>
+      </c>
+      <c r="R12">
+        <v>5.642351768609999</v>
+      </c>
+      <c r="S12">
+        <v>0.001064779632197559</v>
+      </c>
+      <c r="T12">
+        <v>0.001064779632197559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H13">
+        <v>10.221374</v>
+      </c>
+      <c r="I13">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J13">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N13">
+        <v>63.508942</v>
+      </c>
+      <c r="O13">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P13">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q13">
+        <v>72.12762761403422</v>
+      </c>
+      <c r="R13">
+        <v>649.1486485263081</v>
+      </c>
+      <c r="S13">
+        <v>0.122502156470415</v>
+      </c>
+      <c r="T13">
+        <v>0.122502156470415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="H10">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="I10">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="J10">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="N10">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="O10">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="P10">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="Q10">
-        <v>56.17951199857881</v>
-      </c>
-      <c r="R10">
-        <v>56.17951199857881</v>
-      </c>
-      <c r="S10">
-        <v>0.1389153006325898</v>
-      </c>
-      <c r="T10">
-        <v>0.1389153006325898</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.975059</v>
+      </c>
+      <c r="H14">
+        <v>2.925177</v>
+      </c>
+      <c r="I14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>2.980861644431</v>
+      </c>
+      <c r="R14">
+        <v>26.827754799879</v>
+      </c>
+      <c r="S14">
+        <v>0.005062719954367299</v>
+      </c>
+      <c r="T14">
+        <v>0.005062719954367299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.975059</v>
+      </c>
+      <c r="H15">
+        <v>2.925177</v>
+      </c>
+      <c r="I15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>86.80712362604</v>
+      </c>
+      <c r="R15">
+        <v>781.26411263436</v>
+      </c>
+      <c r="S15">
+        <v>0.1474339333339544</v>
+      </c>
+      <c r="T15">
+        <v>0.1474339333339544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.975059</v>
+      </c>
+      <c r="H16">
+        <v>2.925177</v>
+      </c>
+      <c r="I16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>0.179415731295</v>
+      </c>
+      <c r="R16">
+        <v>1.614741581655</v>
+      </c>
+      <c r="S16">
+        <v>0.000304721154922299</v>
+      </c>
+      <c r="T16">
+        <v>0.000304721154922299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.975059</v>
+      </c>
+      <c r="H17">
+        <v>2.925177</v>
+      </c>
+      <c r="I17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>20.64165515919267</v>
+      </c>
+      <c r="R17">
+        <v>185.774896432734</v>
+      </c>
+      <c r="S17">
+        <v>0.03505795703764084</v>
+      </c>
+      <c r="T17">
+        <v>0.03505795703764084</v>
       </c>
     </row>
   </sheetData>
